--- a/Industry/201612-201908/HKD/MILLION/Analysis_91_13 - Houseware_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_91_13 - Houseware_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1152" yWindow="1152"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -29806,6 +29807,1532 @@
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="9" min="8" width="9"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5376.466</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4855.734</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-9.685</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2986.702</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4475.465</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-7.831</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2681.326</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-10.225</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2394.565</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2111.208</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-11.833</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1274.643</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1872.868</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-11.289</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1082.513</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-15.073</v>
+      </c>
+      <c r="J3" t="n">
+        <v>44.538</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43.479</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42.677</v>
+      </c>
+      <c r="M3" t="n">
+        <v>41.847</v>
+      </c>
+      <c r="N3" t="n">
+        <v>40.372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="n">
+        <v>856.226</v>
+      </c>
+      <c r="C4" t="n">
+        <v>655.486</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-23.445</v>
+      </c>
+      <c r="E4" t="n">
+        <v>406.666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>614.539</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-6.247</v>
+      </c>
+      <c r="H4" t="n">
+        <v>402.867</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9340000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.499</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13.616</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13.731</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="n">
+        <v>178.311</v>
+      </c>
+      <c r="C5" t="n">
+        <v>226.465</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.006</v>
+      </c>
+      <c r="E5" t="n">
+        <v>216.812</v>
+      </c>
+      <c r="F5" t="n">
+        <v>359.407</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58.703</v>
+      </c>
+      <c r="H5" t="n">
+        <v>216.105</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.326</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.317</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.031000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" t="n">
+        <v>284.393</v>
+      </c>
+      <c r="C6" t="n">
+        <v>238.231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-16.232</v>
+      </c>
+      <c r="E6" t="n">
+        <v>188.145</v>
+      </c>
+      <c r="F6" t="n">
+        <v>276.954</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="H6" t="n">
+        <v>159.341</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-15.31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.906</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.299</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.188</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="n">
+        <v>285.353</v>
+      </c>
+      <c r="C7" t="n">
+        <v>282.159</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.119</v>
+      </c>
+      <c r="E7" t="n">
+        <v>121.923</v>
+      </c>
+      <c r="F7" t="n">
+        <v>175.452</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-37.818</v>
+      </c>
+      <c r="H7" t="n">
+        <v>101.879</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-16.44</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.307</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.811</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.082</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="n">
+        <v>129.819</v>
+      </c>
+      <c r="C8" t="n">
+        <v>145.91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.395</v>
+      </c>
+      <c r="E8" t="n">
+        <v>77.054</v>
+      </c>
+      <c r="F8" t="n">
+        <v>107.428</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-26.374</v>
+      </c>
+      <c r="H8" t="n">
+        <v>80.298</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="n">
+        <v>123.154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>126.602</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="E9" t="n">
+        <v>75.212</v>
+      </c>
+      <c r="F9" t="n">
+        <v>127.268</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="H9" t="n">
+        <v>77.05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.607</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" t="n">
+        <v>120.82</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129.441</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="E10" t="n">
+        <v>85.136</v>
+      </c>
+      <c r="F10" t="n">
+        <v>119.092</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-7.995</v>
+      </c>
+      <c r="H10" t="n">
+        <v>65.059</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-23.582</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.666</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.661</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="n">
+        <v>180.589</v>
+      </c>
+      <c r="C11" t="n">
+        <v>188.872</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.587</v>
+      </c>
+      <c r="E11" t="n">
+        <v>85.877</v>
+      </c>
+      <c r="F11" t="n">
+        <v>125.038</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-33.797</v>
+      </c>
+      <c r="H11" t="n">
+        <v>61.415</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-28.485</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.359</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.794</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" t="n">
+        <v>80.438</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60.267</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-25.076</v>
+      </c>
+      <c r="E12" t="n">
+        <v>44.391</v>
+      </c>
+      <c r="F12" t="n">
+        <v>79.617</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32.106</v>
+      </c>
+      <c r="H12" t="n">
+        <v>59.647</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34.368</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89.34399999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>88.262</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.212</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40.818</v>
+      </c>
+      <c r="F13" t="n">
+        <v>76.563</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-13.255</v>
+      </c>
+      <c r="H13" t="n">
+        <v>55.335</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.565</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.662</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.367</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46.696</v>
+      </c>
+      <c r="C14" t="n">
+        <v>22.925</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-50.906</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18.751</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.985</v>
+      </c>
+      <c r="G14" t="n">
+        <v>70.056</v>
+      </c>
+      <c r="H14" t="n">
+        <v>39.828</v>
+      </c>
+      <c r="I14" t="n">
+        <v>112.412</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" t="n">
+        <v>74.123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>63.243</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-14.678</v>
+      </c>
+      <c r="E15" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="F15" t="n">
+        <v>51.96</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-17.84</v>
+      </c>
+      <c r="H15" t="n">
+        <v>39.502</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.181</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" t="n">
+        <v>97.39400000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>79.952</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-17.909</v>
+      </c>
+      <c r="E16" t="n">
+        <v>39.918</v>
+      </c>
+      <c r="F16" t="n">
+        <v>58.608</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-26.696</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35.443</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-11.208</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.647</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" t="n">
+        <v>59.667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>66.517</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.481</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.142</v>
+      </c>
+      <c r="F17" t="n">
+        <v>66.339</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="H17" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-37.178</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" t="n">
+        <v>74.383</v>
+      </c>
+      <c r="C18" t="n">
+        <v>63.371</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-14.805</v>
+      </c>
+      <c r="E18" t="n">
+        <v>39.918</v>
+      </c>
+      <c r="F18" t="n">
+        <v>60.211</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4.986</v>
+      </c>
+      <c r="H18" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-27.703</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="n">
+        <v>49.752</v>
+      </c>
+      <c r="C19" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-12.948</v>
+      </c>
+      <c r="E19" t="n">
+        <v>27.193</v>
+      </c>
+      <c r="F19" t="n">
+        <v>41.341</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-4.547</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27.779</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.157</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="n">
+        <v>42.037</v>
+      </c>
+      <c r="C20" t="n">
+        <v>58.678</v>
+      </c>
+      <c r="D20" t="n">
+        <v>39.588</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36.197</v>
+      </c>
+      <c r="F20" t="n">
+        <v>53.252</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-9.247</v>
+      </c>
+      <c r="H20" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-25.629</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38.653</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="F21" t="n">
+        <v>34.399</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-11.005</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.527</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-24.196</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45.361</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35.104</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-22.613</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16.991</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22.456</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-36.028</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14.658</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-13.73</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" t="n">
+        <v>24.762</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35.748</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44.365</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>37.762</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.635</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13.793</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-49.292</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="n">
+        <v>28.573</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23.511</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-17.718</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.776</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-11.826</v>
+      </c>
+      <c r="H24" t="n">
+        <v>13.242</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-16.059</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30.905</v>
+      </c>
+      <c r="C25" t="n">
+        <v>36.121</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.879</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20.157</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.489</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-18.362</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12.657</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-37.208</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10.366</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.888</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.682</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.744</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.612</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-44.384</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.708</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-18.042</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="D27" t="n">
+        <v>73.55800000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.613</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-38.523</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.146</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3818.275</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.457</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="D28" t="n">
+        <v>70.962</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.834</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-36.553</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-30.801</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.962</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-33.454</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-9.678000000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="I29" t="n">
+        <v>41.672</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-84.624</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.288</v>
+      </c>
+      <c r="G30" t="n">
+        <v>448.934</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-49.783</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.204</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-34.34</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.508</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-47.637</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-57.824</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.541</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-44.187</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-27.24</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-20.844</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-18.925</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.636</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.135</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-82.14400000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
